--- a/data/demand_function_Jennifer.xlsx
+++ b/data/demand_function_Jennifer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jen/FTP/or-final/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A04D6680-E359-432B-832D-7A164A54E980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D35270E5-F46E-0D48-913C-A74AC208D83D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5920" yWindow="50" windowWidth="11610" windowHeight="10000" xr2:uid="{510EDD2A-00F7-404E-84DD-B96AA5710553}"/>
+    <workbookView xWindow="14300" yWindow="2240" windowWidth="11620" windowHeight="13100" xr2:uid="{510EDD2A-00F7-404E-84DD-B96AA5710553}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>台北一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,6 +104,18 @@
   </si>
   <si>
     <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台北市場綜合農產品批發市場</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉義市綜合農產品批發市場</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台南市場綜合農產品批發市場</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -111,7 +123,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -126,6 +138,13 @@
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="PMingLiU"/>
+      <family val="1"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="2">
@@ -150,8 +169,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -468,18 +490,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D2DAAFC-2A4D-46C9-AADB-53814AB42E26}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="125" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.5" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4">
       <c r="B1" t="s">
         <v>19</v>
       </c>
@@ -490,175 +513,175 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>104</v>
+      </c>
+      <c r="C2">
+        <v>-2827.4</v>
+      </c>
+      <c r="D2">
+        <v>200752</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>109</v>
+      </c>
+      <c r="C3">
+        <v>-6172.9</v>
+      </c>
+      <c r="D3">
+        <v>449106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
+      <c r="B4">
         <v>241</v>
       </c>
-      <c r="C2">
+      <c r="C4">
         <v>-1980.8</v>
       </c>
-      <c r="D2">
+      <c r="D4">
         <v>85186</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>338</v>
+      </c>
+      <c r="C5">
+        <v>-2504.8000000000002</v>
+      </c>
+      <c r="D5">
+        <v>109048</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>400</v>
+      </c>
+      <c r="C6">
+        <v>-1548.2</v>
+      </c>
+      <c r="D6">
+        <v>68717</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>512</v>
+      </c>
+      <c r="C7">
+        <v>-510.47</v>
+      </c>
+      <c r="D7">
+        <v>31958</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>514</v>
+      </c>
+      <c r="C8">
+        <v>-7079.6</v>
+      </c>
+      <c r="D8">
+        <v>175488</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="B9">
         <v>540</v>
       </c>
-      <c r="C3">
+      <c r="C9">
         <v>-48.847999999999999</v>
       </c>
-      <c r="D3">
+      <c r="D9">
         <v>2784.9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>400</v>
-      </c>
-      <c r="C4">
-        <v>-1548.2</v>
-      </c>
-      <c r="D4">
-        <v>68717</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>109</v>
-      </c>
-      <c r="C5">
-        <v>-6172.9</v>
-      </c>
-      <c r="D5">
-        <v>449106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>104</v>
-      </c>
-      <c r="C6">
-        <v>-2827.4</v>
-      </c>
-      <c r="D6">
-        <v>200752</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>930</v>
-      </c>
-      <c r="C7">
-        <v>-106.78</v>
-      </c>
-      <c r="D7">
-        <v>14526</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>260</v>
-      </c>
-      <c r="C8">
-        <v>-70.08</v>
-      </c>
-      <c r="D8">
-        <v>11259</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>648</v>
+      </c>
+      <c r="C10">
+        <v>-6081</v>
+      </c>
+      <c r="D10">
+        <v>460301</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11">
+        <v>800</v>
+      </c>
+      <c r="C11">
+        <v>-2367</v>
+      </c>
+      <c r="D11">
+        <v>125038</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <v>830</v>
+      </c>
+      <c r="C12">
+        <v>-619.07000000000005</v>
+      </c>
+      <c r="D12">
+        <v>24493</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
         <v>9</v>
       </c>
-      <c r="B9">
+      <c r="B13">
         <v>900</v>
       </c>
-      <c r="C9">
+      <c r="C13">
         <v>-720.07</v>
       </c>
-      <c r="D9">
+      <c r="D13">
         <v>41995</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>220</v>
-      </c>
-      <c r="C10">
-        <v>-2093.5</v>
-      </c>
-      <c r="D10">
-        <v>126608</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11">
-        <v>338</v>
-      </c>
-      <c r="C11">
-        <v>-2504.8000000000002</v>
-      </c>
-      <c r="D11">
-        <v>109048</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12">
-        <v>512</v>
-      </c>
-      <c r="C12">
-        <v>-510.47</v>
-      </c>
-      <c r="D12">
-        <v>31958</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13">
-        <v>514</v>
-      </c>
-      <c r="C13">
-        <v>-7079.6</v>
-      </c>
-      <c r="D13">
-        <v>175488</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -672,60 +695,75 @@
         <v>32149</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B15">
-        <v>648</v>
+        <v>930</v>
       </c>
       <c r="C15">
-        <v>-6081</v>
+        <v>-106.78</v>
       </c>
       <c r="D15">
-        <v>460301</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+        <v>14526</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>260</v>
+      </c>
+      <c r="C16">
+        <v>-70.08</v>
+      </c>
+      <c r="D16">
+        <v>11259</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
         <v>16</v>
       </c>
-      <c r="B16">
+      <c r="B20">
         <v>420</v>
       </c>
-      <c r="C16">
+      <c r="C20">
         <v>-553.27</v>
       </c>
-      <c r="D16">
+      <c r="D20">
         <v>54320</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17">
-        <v>800</v>
-      </c>
-      <c r="C17">
-        <v>-2367</v>
-      </c>
-      <c r="D17">
-        <v>125038</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18">
-        <v>830</v>
-      </c>
-      <c r="C18">
-        <v>-619.07000000000005</v>
-      </c>
-      <c r="D18">
-        <v>24493</v>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21">
+        <v>220</v>
+      </c>
+      <c r="C21">
+        <v>-2093.5</v>
+      </c>
+      <c r="D21">
+        <v>126608</v>
       </c>
     </row>
   </sheetData>

--- a/data/demand_function_Jennifer.xlsx
+++ b/data/demand_function_Jennifer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jen/FTP/or-final/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D35270E5-F46E-0D48-913C-A74AC208D83D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1693ADC3-305D-4364-89BB-2DA7C20AB963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14300" yWindow="2240" windowWidth="11620" windowHeight="13100" xr2:uid="{510EDD2A-00F7-404E-84DD-B96AA5710553}"/>
+    <workbookView xWindow="3170" yWindow="2180" windowWidth="14400" windowHeight="7270" xr2:uid="{510EDD2A-00F7-404E-84DD-B96AA5710553}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>台北一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,18 +104,6 @@
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>台北市場綜合農產品批發市場</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嘉義市綜合農產品批發市場</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>台南市場綜合農產品批發市場</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -123,7 +111,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -138,13 +126,6 @@
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="PMingLiU"/>
-      <family val="1"/>
-      <charset val="136"/>
     </font>
   </fonts>
   <fills count="2">
@@ -169,11 +150,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -490,19 +468,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D2DAAFC-2A4D-46C9-AADB-53814AB42E26}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="125" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="26.5" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>19</v>
       </c>
@@ -513,175 +490,175 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>241</v>
+      </c>
+      <c r="C2">
+        <v>-2.0000000000000001E-4</v>
+      </c>
+      <c r="D2">
+        <v>27.579000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>540</v>
+      </c>
+      <c r="C3">
+        <v>-4.4000000000000003E-3</v>
+      </c>
+      <c r="D3">
+        <v>28.923999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>400</v>
+      </c>
+      <c r="C4">
+        <v>-2.0000000000000001E-4</v>
+      </c>
+      <c r="D4">
+        <v>26.975000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>109</v>
+      </c>
+      <c r="C5">
+        <v>-3.0000000000000001E-5</v>
+      </c>
+      <c r="D5">
+        <v>30.715</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B2">
+      <c r="B6">
         <v>104</v>
       </c>
-      <c r="C2">
-        <v>-2827.4</v>
-      </c>
-      <c r="D2">
-        <v>200752</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>109</v>
-      </c>
-      <c r="C3">
-        <v>-6172.9</v>
-      </c>
-      <c r="D3">
-        <v>449106</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>241</v>
-      </c>
-      <c r="C4">
-        <v>-1980.8</v>
-      </c>
-      <c r="D4">
-        <v>85186</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
+      <c r="C6">
+        <v>-6.0000000000000002E-5</v>
+      </c>
+      <c r="D6">
+        <v>30.274999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>930</v>
+      </c>
+      <c r="C7">
+        <v>-2.0000000000000001E-4</v>
+      </c>
+      <c r="D7">
+        <v>27.199000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>260</v>
+      </c>
+      <c r="C8">
+        <v>-6.9999999999999999E-4</v>
+      </c>
+      <c r="D8">
+        <v>32.051000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>900</v>
+      </c>
+      <c r="C9">
+        <v>-2.0000000000000001E-4</v>
+      </c>
+      <c r="D9">
+        <v>24.783000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>220</v>
+      </c>
+      <c r="C10">
+        <v>-9.0000000000000006E-5</v>
+      </c>
+      <c r="D10">
+        <v>26.184999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B5">
+      <c r="B11">
         <v>338</v>
       </c>
-      <c r="C5">
-        <v>-2504.8000000000002</v>
-      </c>
-      <c r="D5">
-        <v>109048</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>400</v>
-      </c>
-      <c r="C6">
-        <v>-1548.2</v>
-      </c>
-      <c r="D6">
-        <v>68717</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
+      <c r="C11">
+        <v>-1E-4</v>
+      </c>
+      <c r="D11">
+        <v>26.032</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B7">
+      <c r="B12">
         <v>512</v>
       </c>
-      <c r="C7">
-        <v>-510.47</v>
-      </c>
-      <c r="D7">
-        <v>31958</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
+      <c r="C12">
+        <v>-2.0000000000000001E-4</v>
+      </c>
+      <c r="D12">
+        <v>22.064</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B8">
+      <c r="B13">
         <v>514</v>
       </c>
-      <c r="C8">
-        <v>-7079.6</v>
-      </c>
-      <c r="D8">
-        <v>175488</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9">
-        <v>540</v>
-      </c>
-      <c r="C9">
-        <v>-48.847999999999999</v>
-      </c>
-      <c r="D9">
-        <v>2784.9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>648</v>
-      </c>
-      <c r="C10">
-        <v>-6081</v>
-      </c>
-      <c r="D10">
-        <v>460301</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11">
-        <v>800</v>
-      </c>
-      <c r="C11">
-        <v>-2367</v>
-      </c>
-      <c r="D11">
-        <v>125038</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12">
-        <v>830</v>
-      </c>
-      <c r="C12">
-        <v>-619.07000000000005</v>
-      </c>
-      <c r="D12">
-        <v>24493</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13">
-        <v>900</v>
-      </c>
       <c r="C13">
-        <v>-720.07</v>
+        <v>-1E-4</v>
       </c>
       <c r="D13">
-        <v>41995</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>22.777000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -689,81 +666,66 @@
         <v>950</v>
       </c>
       <c r="C14">
-        <v>-444.54</v>
+        <v>-5.9999999999999995E-4</v>
       </c>
       <c r="D14">
-        <v>32149</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>37.640999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B15">
-        <v>930</v>
+        <v>648</v>
       </c>
       <c r="C15">
-        <v>-106.78</v>
+        <v>-3.0000000000000001E-5</v>
       </c>
       <c r="D15">
-        <v>14526</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>29.548999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B16">
-        <v>260</v>
+        <v>420</v>
       </c>
       <c r="C16">
-        <v>-70.08</v>
+        <v>-2.0000000000000001E-4</v>
       </c>
       <c r="D16">
-        <v>11259</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20">
-        <v>420</v>
-      </c>
-      <c r="C20">
-        <v>-553.27</v>
-      </c>
-      <c r="D20">
-        <v>54320</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21">
-        <v>220</v>
-      </c>
-      <c r="C21">
-        <v>-2093.5</v>
-      </c>
-      <c r="D21">
-        <v>126608</v>
+        <v>26.190999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>800</v>
+      </c>
+      <c r="C17">
+        <v>-1E-4</v>
+      </c>
+      <c r="D17">
+        <v>29.728999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>830</v>
+      </c>
+      <c r="C18">
+        <v>-5.0000000000000001E-4</v>
+      </c>
+      <c r="D18">
+        <v>24.42</v>
       </c>
     </row>
   </sheetData>
